--- a/biology/Botanique/François_Médard/François_Médard.xlsx
+++ b/biology/Botanique/François_Médard/François_Médard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_M%C3%A9dard</t>
+          <t>François_Médard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Francois Médard (1647-1720)[1]  était un luthier né en Lorraine du XVIIe siècle.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Francois Médard (1647-1720)  était un luthier né en Lorraine du XVIIe siècle.
 Sa vie fut mal documentée et nous ne connaissons aujourd'hui que peu de chose de lui.
-Il étudia la lutherie à Crémone[2], chez le célèbre Antonio Stradivari[3], et était, dit-on, l'élève préféré du maître.
+Il étudia la lutherie à Crémone, chez le célèbre Antonio Stradivari, et était, dit-on, l'élève préféré du maître.
 L'apprenti luthier fit rapidement ses preuves, se montrant consciencieux et talentueux.
 Une fois ses études achevée, François Médard rentre chez lui en Lorrainee et s'établit à Mirecourt sous l'étiquette de " Francesco Medardi, alumnus Antoni Stradivari".
 </t>
